--- a/lit-review.xlsx
+++ b/lit-review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesboyko/2020_houwie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647AC55F-D7FD-7B48-AD37-3526DA275C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EA2F7-99CC-8F43-B92E-168EBC9AA1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lit-review" sheetId="1" r:id="rId1"/>
@@ -1337,8 +1337,8 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,454 +1415,457 @@
     </row>
     <row r="4" spans="1:7" ht="251" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="272" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>2020</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="7" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>2019</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="323" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="295" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>2012</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>2017</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="221" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>2012</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>2016</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>2005</v>
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>2015</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="238" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="221" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2012</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="221" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="255" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="221" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>2015</v>
+    <row r="20" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2012</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>2012</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>2011</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2010</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
+    <row r="24" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
-        <v>2016</v>
+      <c r="A25" s="4">
+        <v>2008</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="323" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+    <sortCondition descending="1" ref="A1:A28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>